--- a/data/trans_bre/P36BPD07_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Clase-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.278200675239749</v>
+        <v>1.27820067523975</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.943337859143959</v>
+        <v>-4.943337859143967</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-0.01412126899421642</v>
+        <v>0.1347743182779134</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.06255198846413278</v>
+        <v>-0.2357076060193898</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.788206146381655</v>
+        <v>-3.192154239025573</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2460139368298087</v>
+        <v>-9.300499965230902</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.06209252156894381</v>
+        <v>-0.2741956077448952</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.003052053206658655</v>
+        <v>-0.4019219913179834</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.192154239025571</v>
+        <v>5.788206146381658</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.300499965230911</v>
+        <v>-0.2460139368298022</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.03683679357189713</v>
+        <v>0.7966182378021565</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1232566057297294</v>
+        <v>-0.01451219778221767</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-1.581971676050486</v>
+        <v>1.581971676050498</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.453398617418836</v>
+        <v>-4.453398617418861</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.01801397221477296</v>
+        <v>0.1298736378278118</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.05992371365259388</v>
+        <v>-0.1734040995238689</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.586998201949969</v>
+        <v>-2.852777842235685</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.396929451409977</v>
+        <v>-10.26671597058379</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07305441705694302</v>
+        <v>-0.2108774088921236</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01925266690926385</v>
+        <v>-0.3550512915334144</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.852777842235687</v>
+        <v>6.586998201949967</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.26671597058379</v>
+        <v>1.396929451409982</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03339558994678756</v>
+        <v>0.6826041620436111</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1447370385168184</v>
+        <v>0.06381289453154064</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6538192697468026</v>
+        <v>-0.653819269746797</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.076873025502717</v>
+        <v>-7.076873025502733</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.007616973832133942</v>
+        <v>-0.04616436187631846</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1006002836426269</v>
+        <v>-0.2386518142110441</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.865504969386272</v>
+        <v>-6.272276127911976</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9846123057923053</v>
+        <v>-13.96319546245921</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.06649975360852595</v>
+        <v>-0.4179065719768093</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01012869689070373</v>
+        <v>-0.4343118218732873</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.272276127911974</v>
+        <v>5.865504969386276</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.96319546245921</v>
+        <v>-0.984612305792296</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.07413942210166773</v>
+        <v>0.4998743688159536</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2068512232768213</v>
+        <v>-0.02841070282558272</v>
       </c>
     </row>
     <row r="13">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-1.419795663134993</v>
+        <v>1.419795663134996</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5.012864156517094</v>
+        <v>-5.012864156517102</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.01670992174310539</v>
+        <v>0.0944466716960352</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.07097589287180055</v>
+        <v>-0.1706663886383437</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.735734631721582</v>
+        <v>-1.825842635893565</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.024634216718561</v>
+        <v>-9.050789902319346</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05506743951542583</v>
+        <v>-0.1089394614819083</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01452747342250691</v>
+        <v>-0.2897720129838817</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.825842635893568</v>
+        <v>4.735734631721583</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.050789902319378</v>
+        <v>-1.02463421671854</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02205372120442551</v>
+        <v>0.3535067884672008</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1332765659482449</v>
+        <v>-0.0359220563661478</v>
       </c>
     </row>
     <row r="16">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.867911185665872</v>
+        <v>-2.867911185665872</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>9.216761838364318</v>
+        <v>-9.216761838364306</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.03410241229877306</v>
+        <v>-0.1803379523847864</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.140119876799499</v>
+        <v>-0.2693202731104114</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9635220987179931</v>
+        <v>-6.507622237486071</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.03768802324941</v>
+        <v>-14.27250738669666</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.0110023109118682</v>
+        <v>-0.3547973812128795</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.05854812876739187</v>
+        <v>-0.3831953363224207</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.507622237486077</v>
+        <v>0.9635220987179871</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.27250738669664</v>
+        <v>-4.037688023249421</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.08002345972301773</v>
+        <v>0.07218966011131567</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.236290489120301</v>
+        <v>-0.1370490034399622</v>
       </c>
     </row>
     <row r="19">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.80506364238879</v>
+        <v>-21.80506364238878</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>5.383724541404044</v>
+        <v>-5.383724541404056</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3281154209231565</v>
+        <v>-0.6500333115471785</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.08053824528107019</v>
+        <v>-0.1623893224226103</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.97166883067245</v>
+        <v>-27.97227117921526</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.540823535374835</v>
+        <v>-15.78263822604931</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2238201760905998</v>
+        <v>-0.727072388391239</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04647378476659337</v>
+        <v>-0.371710531003995</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.97227117921526</v>
+        <v>-15.97166883067245</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.78263822604931</v>
+        <v>3.540823535374801</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4638935255897593</v>
+        <v>-0.5529459144845659</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.275115173441803</v>
+        <v>0.1449334765722755</v>
       </c>
     </row>
     <row r="22">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.289849957113632</v>
+        <v>-2.289849957113637</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.878024669102022</v>
+        <v>-4.87802466910203</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.02713361633182523</v>
+        <v>-0.1467064869863498</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.06832412788606726</v>
+        <v>-0.170532545709284</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5259089261896276</v>
+        <v>-3.931542876716933</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.616429910863798</v>
+        <v>-6.875694292216404</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.006200570186582292</v>
+        <v>-0.2382161255230765</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.03557479830867346</v>
+        <v>-0.2316397036725711</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.931542876716938</v>
+        <v>-0.5259089261896186</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.875694292216389</v>
+        <v>-2.616429910863809</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.04707683741582823</v>
+        <v>-0.03680056988917959</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.09813208838292105</v>
+        <v>-0.09026319341142698</v>
       </c>
     </row>
     <row r="25">

--- a/data/trans_bre/P36BPD07_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Clase-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P36BPD07_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>1.27820067523975</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-4.943337859143967</v>
+        <v>-4.94333785914397</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1347743182779134</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.2357076060193898</v>
+        <v>-0.2357076060193899</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.192154239025573</v>
+        <v>-2.880916469203461</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.300499965230902</v>
+        <v>-9.259066793806083</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2741956077448952</v>
+        <v>-0.2546029946226279</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4019219913179834</v>
+        <v>-0.3948343566125515</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.788206146381658</v>
+        <v>5.688914192978054</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2460139368298022</v>
+        <v>-0.003120214664378397</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7966182378021565</v>
+        <v>0.7458124455121625</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.01451219778221767</v>
+        <v>0.003999019797189103</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.852777842235685</v>
+        <v>-2.964871140776603</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.26671597058379</v>
+        <v>-9.879990138020229</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2108774088921236</v>
+        <v>-0.2039328589777216</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3550512915334144</v>
+        <v>-0.3433491866933828</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.586998201949967</v>
+        <v>6.842131668721439</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.396929451409982</v>
+        <v>0.7307048845484586</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6826041620436111</v>
+        <v>0.7094603159438717</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.06381289453154064</v>
+        <v>0.03886610091659311</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-0.653819269746797</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-7.076873025502733</v>
+        <v>-7.076873025502731</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.04616436187631846</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.2386518142110441</v>
+        <v>-0.238651814211044</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.272276127911976</v>
+        <v>-6.149727209047081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.96319546245921</v>
+        <v>-13.20347707195577</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.4179065719768093</v>
+        <v>-0.4052369341740078</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4343118218732873</v>
+        <v>-0.4109099986217842</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.865504969386276</v>
+        <v>6.092124575874276</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.984612305792296</v>
+        <v>0.06540889375364621</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.4998743688159536</v>
+        <v>0.4641067341472672</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.02841070282558272</v>
+        <v>-0.0006211749995472378</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>1.419795663134996</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-5.012864156517102</v>
+        <v>-5.012864156517099</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.0944466716960352</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1706663886383437</v>
+        <v>-0.1706663886383436</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.825842635893565</v>
+        <v>-2.114373082322307</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.050789902319346</v>
+        <v>-8.74192027560856</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1089394614819083</v>
+        <v>-0.1308872119924145</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2897720129838817</v>
+        <v>-0.2822735047654337</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.735734631721583</v>
+        <v>4.732799682781332</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.02463421671854</v>
+        <v>-1.172546547170358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3535067884672008</v>
+        <v>0.3456639620173985</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.0359220563661478</v>
+        <v>-0.04407870923020377</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.507622237486071</v>
+        <v>-6.724919235133283</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.27250738669666</v>
+        <v>-14.81942819251767</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3547973812128795</v>
+        <v>-0.3813083020354736</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3831953363224207</v>
+        <v>-0.38907880946673</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9635220987179871</v>
+        <v>0.9153287913027974</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.037688023249421</v>
+        <v>-4.251247367402141</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.07218966011131567</v>
+        <v>0.06941466341444165</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1370490034399622</v>
+        <v>-0.1405459245447871</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-21.80506364238878</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-5.383724541404056</v>
+        <v>-5.383724541404061</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.6500333115471785</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.1623893224226103</v>
+        <v>-0.1623893224226104</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-27.97227117921526</v>
+        <v>-28.0998351196713</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-15.78263822604931</v>
+        <v>-15.42873906138015</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.727072388391239</v>
+        <v>-0.7204376637425668</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.371710531003995</v>
+        <v>-0.3583119402333917</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-15.97166883067245</v>
+        <v>-15.95507955946906</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.540823535374801</v>
+        <v>4.239128865083519</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5529459144845659</v>
+        <v>-0.546919594339061</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1449334765722755</v>
+        <v>0.1826076114523103</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-2.289849957113637</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-4.87802466910203</v>
+        <v>-4.878024669102024</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.1467064869863498</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.170532545709284</v>
+        <v>-0.1705325457092839</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.931542876716933</v>
+        <v>-4.001265225328451</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.875694292216404</v>
+        <v>-7.022393706786588</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.2382161255230765</v>
+        <v>-0.2401758945625421</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.2316397036725711</v>
+        <v>-0.238572521549821</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5259089261896186</v>
+        <v>-0.54190761169583</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.616429910863809</v>
+        <v>-2.725536233086602</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.03680056988917959</v>
+        <v>-0.03673553818543185</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.09026319341142698</v>
+        <v>-0.09986151591657919</v>
       </c>
     </row>
     <row r="25">
